--- a/nazwa_pliku.xlsx
+++ b/nazwa_pliku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\Python\PROJEKT DODAWANIE INFO DO GIĘCIA\M.Bednarska - PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF57E5A-655B-40E9-A85F-69EFA333B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D2BC6-57BC-4768-B673-992CC4F82F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Rysunek</t>
   </si>
@@ -44,57 +44,12 @@
     <t>Anz.</t>
   </si>
   <si>
-    <t>NAZWA</t>
-  </si>
-  <si>
-    <t>TECHNOLOGIA</t>
-  </si>
-  <si>
-    <t>UWAGI2</t>
-  </si>
-  <si>
-    <t>UWAGI3</t>
-  </si>
-  <si>
-    <t>FOLDER1</t>
-  </si>
-  <si>
-    <t>FOLDER2</t>
-  </si>
-  <si>
-    <t>FOLDER3</t>
-  </si>
-  <si>
     <t>SL10478990</t>
   </si>
   <si>
     <t>SL10478991</t>
   </si>
   <si>
-    <t>10_S355_SL10278402_p2P_1st_GS_90__9615 10_S355_SL10278402_p2L_1st_GS_90__9615</t>
-  </si>
-  <si>
-    <t>10_S355_SL10278402_p3_2st_S_90__9615</t>
-  </si>
-  <si>
-    <t>5_S355_SL10278402_p4_2st_S_90__9615</t>
-  </si>
-  <si>
-    <t>6_S355_SL10278402_p6_2st_S_90__9615</t>
-  </si>
-  <si>
-    <t>4_S235_10002848_p1_1st_GS_90__9615</t>
-  </si>
-  <si>
-    <t>4_S235_10002848_p2_1st_GS_90__9615</t>
-  </si>
-  <si>
-    <t>4_S235_40642_p1_7st_GS_90__9615</t>
-  </si>
-  <si>
-    <t>15_S235_10002775_p1_2st_S_90_1_9615</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
@@ -113,17 +68,23 @@
     <t>P55, G100</t>
   </si>
   <si>
-    <t>przerwa</t>
-  </si>
-  <si>
-    <t>szt</t>
+    <t>NR Zlecenia</t>
+  </si>
+  <si>
+    <t>Posn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sposób gięcia </t>
+  </si>
+  <si>
+    <t>Gięcie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,15 +105,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,51 +115,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -220,43 +140,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -548,225 +473,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>400055506</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>